--- a/FPR2110-NGFW-K9_VI.xlsx
+++ b/FPR2110-NGFW-K9_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CCDE4B-6542-4C73-A0FF-6A270D5AD3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186DE1B7-19C1-413F-AC27-51793B400DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FPR2110-NGFW-K9_VI.xlsx
+++ b/FPR2110-NGFW-K9_VI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186DE1B7-19C1-413F-AC27-51793B400DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC4808-A60A-4661-A8B4-0C3ECD635509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>1x 100 GB</t>
   </si>
   <si>
-    <t>Cấu hình, ghi nhật ký, giám sát và báo cáo tập trung được thực hiện bởi Management Center hoặc trên đám mây với Cisco Defense Orchestrator</t>
-  </si>
-  <si>
     <t>Nguồn đơn tích hợp 250W AC power supply.
 100 to 240V AC
 50 to 60 Hz</t>
@@ -168,6 +165,9 @@
   <si>
     <t xml:space="preserve">
 16,1 lb (7,3 kg): với 2 ổ SSD</t>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15067,7 +15067,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
@@ -15110,60 +15110,60 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15179,31 +15179,31 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15211,7 +15211,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
